--- a/election_votar_data/SATKANIA/AMILAIS/152409/152409_com_603_female_without_photo_34_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/AMILAIS/152409/152409_com_603_female_without_photo_34_2025-11-24.xlsx
@@ -14286,7 +14286,7 @@
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০৯৯৭৮৪২০</t>
+          <t>১৫২৪০৬৯৭৮৪২০</t>
         </is>
       </c>
       <c r="D330" s="4" t="inlineStr">
